--- a/03_Outputs/all/idx12_salud_loadings_y_tops.xlsx
+++ b/03_Outputs/all/idx12_salud_loadings_y_tops.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,6 +376,16 @@
           <t>loading</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo_pct</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -391,6 +401,12 @@
       <c r="C2">
         <v>0.03769913565558997</v>
       </c>
+      <c r="D2">
+        <v>0.0223748508401351</v>
+      </c>
+      <c r="E2">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -406,6 +422,12 @@
       <c r="C3">
         <v>0.69067049534264</v>
       </c>
+      <c r="D3">
+        <v>0.4099205205698754</v>
+      </c>
+      <c r="E3">
+        <v>41</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -421,6 +443,12 @@
       <c r="C4">
         <v>0.2992503984388553</v>
       </c>
+      <c r="D4">
+        <v>0.1776083963858084</v>
+      </c>
+      <c r="E4">
+        <v>17.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -436,6 +464,12 @@
       <c r="C5">
         <v>0.6572687738423</v>
       </c>
+      <c r="D5">
+        <v>0.3900962322041812</v>
+      </c>
+      <c r="E5">
+        <v>39</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -451,6 +485,12 @@
       <c r="C6">
         <v>0.7689813484181397</v>
       </c>
+      <c r="D6">
+        <v>0.4620138043326463</v>
+      </c>
+      <c r="E6">
+        <v>46.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -466,6 +506,12 @@
       <c r="C7">
         <v>-0.06368547385100282</v>
       </c>
+      <c r="D7">
+        <v>0.03826304515077754</v>
+      </c>
+      <c r="E7">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -481,6 +527,12 @@
       <c r="C8">
         <v>0.5872082183855579</v>
       </c>
+      <c r="D8">
+        <v>0.3528021888564538</v>
+      </c>
+      <c r="E8">
+        <v>35.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -496,6 +548,12 @@
       <c r="C9">
         <v>-0.2445370206448345</v>
       </c>
+      <c r="D9">
+        <v>0.1469209616601226</v>
+      </c>
+      <c r="E9">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -511,6 +569,12 @@
       <c r="C10">
         <v>0.6367424804894488</v>
       </c>
+      <c r="D10">
+        <v>0.3816523616783751</v>
+      </c>
+      <c r="E10">
+        <v>38.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -526,6 +590,12 @@
       <c r="C11">
         <v>0.08376438942665318</v>
       </c>
+      <c r="D11">
+        <v>0.05020691728413593</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -541,6 +611,12 @@
       <c r="C12">
         <v>-0.7369093329479378</v>
       </c>
+      <c r="D12">
+        <v>0.4416906298543667</v>
+      </c>
+      <c r="E12">
+        <v>44.2</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -556,6 +632,12 @@
       <c r="C13">
         <v>0.2109672382583356</v>
       </c>
+      <c r="D13">
+        <v>0.1264500911831222</v>
+      </c>
+      <c r="E13">
+        <v>12.6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -571,6 +653,12 @@
       <c r="C14">
         <v>0.04249087544385829</v>
       </c>
+      <c r="D14">
+        <v>0.02673647089698702</v>
+      </c>
+      <c r="E14">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -586,6 +674,12 @@
       <c r="C15">
         <v>-0.7154732380372486</v>
       </c>
+      <c r="D15">
+        <v>0.4501961705079659</v>
+      </c>
+      <c r="E15">
+        <v>45</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -601,6 +695,12 @@
       <c r="C16">
         <v>0.1503341022817871</v>
       </c>
+      <c r="D16">
+        <v>0.09459450549076985</v>
+      </c>
+      <c r="E16">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -615,6 +715,12 @@
       </c>
       <c r="C17">
         <v>0.6809495053582449</v>
+      </c>
+      <c r="D17">
+        <v>0.4284728531042771</v>
+      </c>
+      <c r="E17">
+        <v>42.8</v>
       </c>
     </row>
   </sheetData>
